--- a/Sales.xlsx
+++ b/Sales.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raise\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\excel\sales_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7582D56A-78E4-4737-836F-DF8E895C7766}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAAE625-36B9-4A54-9722-85B0606D8F13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14325" xr2:uid="{168DEA0C-0AEF-4F12-BDDE-D3E180AD7F97}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="82">
   <si>
     <t>Shop</t>
   </si>
@@ -678,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975F2893-75A6-488F-B2F3-9C98EEA52823}">
-  <dimension ref="A1:I345"/>
+  <dimension ref="A1:I356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="I347" sqref="I347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10701,6 +10701,325 @@
       <c r="I345" t="str">
         <f t="shared" si="11"/>
         <v>Понедельник</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>13</v>
+      </c>
+      <c r="B346" t="s">
+        <v>28</v>
+      </c>
+      <c r="C346" s="2">
+        <v>44033</v>
+      </c>
+      <c r="D346" t="s">
+        <v>33</v>
+      </c>
+      <c r="F346">
+        <v>23</v>
+      </c>
+      <c r="G346">
+        <f>VLOOKUP(A346,'Cost price'!$A$2:$E$22,5,0)</f>
+        <v>4.16</v>
+      </c>
+      <c r="H346">
+        <f t="shared" ref="H346:H356" si="12">F346*G346</f>
+        <v>95.68</v>
+      </c>
+      <c r="I346" t="str">
+        <f t="shared" ref="I346" si="13">PROPER(TEXT(C346,"дддд"))</f>
+        <v>Вторник</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>13</v>
+      </c>
+      <c r="B347" t="s">
+        <v>28</v>
+      </c>
+      <c r="C347" s="2">
+        <v>44033</v>
+      </c>
+      <c r="D347" t="s">
+        <v>33</v>
+      </c>
+      <c r="F347">
+        <v>23</v>
+      </c>
+      <c r="G347">
+        <f>VLOOKUP(A347,'Cost price'!$A$2:$E$22,5,0)</f>
+        <v>4.16</v>
+      </c>
+      <c r="H347">
+        <f t="shared" si="12"/>
+        <v>95.68</v>
+      </c>
+      <c r="I347" t="str">
+        <f>PROPER(TEXT(C347,"дддд"))</f>
+        <v>Вторник</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>13</v>
+      </c>
+      <c r="B348" t="s">
+        <v>28</v>
+      </c>
+      <c r="C348" s="2">
+        <v>44033</v>
+      </c>
+      <c r="D348" t="s">
+        <v>33</v>
+      </c>
+      <c r="F348">
+        <v>23</v>
+      </c>
+      <c r="G348">
+        <f>VLOOKUP(A348,'Cost price'!$A$2:$E$22,5,0)</f>
+        <v>4.16</v>
+      </c>
+      <c r="H348">
+        <f t="shared" si="12"/>
+        <v>95.68</v>
+      </c>
+      <c r="I348" t="str">
+        <f>PROPER(TEXT(C348,"дддд"))</f>
+        <v>Вторник</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>13</v>
+      </c>
+      <c r="B349" t="s">
+        <v>28</v>
+      </c>
+      <c r="C349" s="2">
+        <v>44033</v>
+      </c>
+      <c r="D349" t="s">
+        <v>33</v>
+      </c>
+      <c r="F349">
+        <v>23</v>
+      </c>
+      <c r="G349">
+        <f>VLOOKUP(A349,'Cost price'!$A$2:$E$22,5,0)</f>
+        <v>4.16</v>
+      </c>
+      <c r="H349">
+        <f t="shared" si="12"/>
+        <v>95.68</v>
+      </c>
+      <c r="I349" t="str">
+        <f>PROPER(TEXT(C349,"дддд"))</f>
+        <v>Вторник</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>13</v>
+      </c>
+      <c r="B350" t="s">
+        <v>28</v>
+      </c>
+      <c r="C350" s="2">
+        <v>44033</v>
+      </c>
+      <c r="D350" t="s">
+        <v>33</v>
+      </c>
+      <c r="F350">
+        <v>23</v>
+      </c>
+      <c r="G350">
+        <f>VLOOKUP(A350,'Cost price'!$A$2:$E$22,5,0)</f>
+        <v>4.16</v>
+      </c>
+      <c r="H350">
+        <f t="shared" si="12"/>
+        <v>95.68</v>
+      </c>
+      <c r="I350" t="str">
+        <f>PROPER(TEXT(C350,"дддд"))</f>
+        <v>Вторник</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>13</v>
+      </c>
+      <c r="B351" t="s">
+        <v>28</v>
+      </c>
+      <c r="C351" s="2">
+        <v>44033</v>
+      </c>
+      <c r="D351" t="s">
+        <v>33</v>
+      </c>
+      <c r="F351">
+        <v>23</v>
+      </c>
+      <c r="G351">
+        <f>VLOOKUP(A351,'Cost price'!$A$2:$E$22,5,0)</f>
+        <v>4.16</v>
+      </c>
+      <c r="H351">
+        <f t="shared" si="12"/>
+        <v>95.68</v>
+      </c>
+      <c r="I351" t="str">
+        <f>PROPER(TEXT(C351,"дддд"))</f>
+        <v>Вторник</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>13</v>
+      </c>
+      <c r="B352" t="s">
+        <v>28</v>
+      </c>
+      <c r="C352" s="2">
+        <v>44033</v>
+      </c>
+      <c r="D352" t="s">
+        <v>33</v>
+      </c>
+      <c r="F352">
+        <v>23</v>
+      </c>
+      <c r="G352">
+        <f>VLOOKUP(A352,'Cost price'!$A$2:$E$22,5,0)</f>
+        <v>4.16</v>
+      </c>
+      <c r="H352">
+        <f t="shared" si="12"/>
+        <v>95.68</v>
+      </c>
+      <c r="I352" t="str">
+        <f>PROPER(TEXT(C352,"дддд"))</f>
+        <v>Вторник</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>13</v>
+      </c>
+      <c r="B353" t="s">
+        <v>28</v>
+      </c>
+      <c r="C353" s="2">
+        <v>44033</v>
+      </c>
+      <c r="D353" t="s">
+        <v>33</v>
+      </c>
+      <c r="F353">
+        <v>23</v>
+      </c>
+      <c r="G353">
+        <f>VLOOKUP(A353,'Cost price'!$A$2:$E$22,5,0)</f>
+        <v>4.16</v>
+      </c>
+      <c r="H353">
+        <f t="shared" si="12"/>
+        <v>95.68</v>
+      </c>
+      <c r="I353" t="str">
+        <f>PROPER(TEXT(C353,"дддд"))</f>
+        <v>Вторник</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>13</v>
+      </c>
+      <c r="B354" t="s">
+        <v>28</v>
+      </c>
+      <c r="C354" s="2">
+        <v>44033</v>
+      </c>
+      <c r="D354" t="s">
+        <v>33</v>
+      </c>
+      <c r="F354">
+        <v>23</v>
+      </c>
+      <c r="G354">
+        <f>VLOOKUP(A354,'Cost price'!$A$2:$E$22,5,0)</f>
+        <v>4.16</v>
+      </c>
+      <c r="H354">
+        <f t="shared" si="12"/>
+        <v>95.68</v>
+      </c>
+      <c r="I354" t="str">
+        <f>PROPER(TEXT(C354,"дддд"))</f>
+        <v>Вторник</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>13</v>
+      </c>
+      <c r="B355" t="s">
+        <v>28</v>
+      </c>
+      <c r="C355" s="2">
+        <v>44033</v>
+      </c>
+      <c r="D355" t="s">
+        <v>33</v>
+      </c>
+      <c r="F355">
+        <v>23</v>
+      </c>
+      <c r="G355">
+        <f>VLOOKUP(A355,'Cost price'!$A$2:$E$22,5,0)</f>
+        <v>4.16</v>
+      </c>
+      <c r="H355">
+        <f t="shared" si="12"/>
+        <v>95.68</v>
+      </c>
+      <c r="I355" t="str">
+        <f>PROPER(TEXT(C355,"дддд"))</f>
+        <v>Вторник</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>13</v>
+      </c>
+      <c r="B356" t="s">
+        <v>28</v>
+      </c>
+      <c r="C356" s="2">
+        <v>44033</v>
+      </c>
+      <c r="D356" t="s">
+        <v>33</v>
+      </c>
+      <c r="F356">
+        <v>23</v>
+      </c>
+      <c r="G356">
+        <f>VLOOKUP(A356,'Cost price'!$A$2:$E$22,5,0)</f>
+        <v>4.16</v>
+      </c>
+      <c r="H356">
+        <f t="shared" si="12"/>
+        <v>95.68</v>
+      </c>
+      <c r="I356" t="str">
+        <f>PROPER(TEXT(C356,"дддд"))</f>
+        <v>Вторник</v>
       </c>
     </row>
   </sheetData>
@@ -20963,7 +21282,7 @@
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="8">
         <f ca="1">NOW()</f>
-        <v>44226.717742129629</v>
+        <v>44226.729187037039</v>
       </c>
       <c r="D2" s="7"/>
       <c r="F2" s="2">
